--- a/biology/Botanique/Champereia/Champereia.xlsx
+++ b/biology/Botanique/Champereia/Champereia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Champereia est un genre d'arbuste de la famille des Opiliaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Yunnanopilia C. Y. Wu &amp; D. Z. Li.</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le genre Champereia ne compte qu'une seule espèce : Champereia manillana (Blume) Merrill avec deux variétés :
 Champereia manillana var. longistaminea (W. Z. Li) H. S. Kiu.
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste ou petit arbre atteignant 10 mètres de hauteur.
 </t>
@@ -604,7 +622,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêt primaire d'Asie du Sud-Est depuis la Birmanie jusqu'aux Philippines et la Nouvelle-Guinée.
 La variété Longistaminea est endémique  au Yunnan et au Guangxi.
